--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Happiest Minds Technologies Ltd/Pruned_Excel/Semi_Final/Happiest Minds Technologies Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Happiest Minds Technologies Ltd/Pruned_Excel/Semi_Final/Happiest Minds Technologies Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="97">
   <si>
     <t>Balance Sheet of Happiest Minds Technologies(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,19 +62,22 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Happiest Minds Technologies(in Rs. Cr.)</t>
@@ -170,9 +176,6 @@
     <t>Quarterly Results of Happiest Minds Technologies(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -233,25 +236,7 @@
     <t>2019</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -681,13 +666,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,209 +712,227 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
         <v>8.789999999999999</v>
-      </c>
-      <c r="C2">
-        <v>215.94</v>
       </c>
       <c r="D2">
         <v>215.94</v>
       </c>
       <c r="E2">
+        <v>215.94</v>
+      </c>
+      <c r="F2">
         <v>229.27</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>95.06999999999999</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>211.32</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>508.11</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>30.96</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>37.97</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>63</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>445.11</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>508.11</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>28.37</v>
-      </c>
-      <c r="C3">
-        <v>514.6900000000001</v>
       </c>
       <c r="D3">
         <v>514.6900000000001</v>
       </c>
       <c r="E3">
+        <v>514.6900000000001</v>
+      </c>
+      <c r="F3">
         <v>546.67</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>109.83</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>270.36</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>906.95</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>22.16</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>29.06</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>175.25</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>731.7</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>906.95</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
         <v>28.54</v>
-      </c>
-      <c r="C4">
-        <v>637.35</v>
       </c>
       <c r="D4">
         <v>637.35</v>
       </c>
       <c r="E4">
+        <v>637.35</v>
+      </c>
+      <c r="F4">
         <v>669.74</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>95.12</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>338.44</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1082.79</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>54.66</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>63.83</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>178.86</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>903.9299999999999</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1082.79</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
         <v>28.66</v>
-      </c>
-      <c r="C5">
-        <v>794.66</v>
       </c>
       <c r="D5">
         <v>794.66</v>
       </c>
       <c r="E5">
+        <v>794.66</v>
+      </c>
+      <c r="F5">
         <v>825.98</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>104.51</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>548.28</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1576.4</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>188.97</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>201.68</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>542.36</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1034.04</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1576.4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
         <v>29.87</v>
-      </c>
-      <c r="C6">
-        <v>1442.2</v>
       </c>
       <c r="D6">
         <v>1442.2</v>
       </c>
       <c r="E6">
+        <v>1442.2</v>
+      </c>
+      <c r="F6">
         <v>1473.7</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>122.51</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>550.13</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2207.87</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>193.85</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>203.39</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>455.06</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1752.81</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2207.87</v>
       </c>
     </row>
@@ -940,183 +943,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>75.33</v>
+      </c>
+      <c r="D2">
+        <v>112.62</v>
+      </c>
+      <c r="E2">
+        <v>-74.48999999999999</v>
+      </c>
+      <c r="F2">
+        <v>-12.8</v>
+      </c>
+      <c r="G2">
+        <v>2.12</v>
+      </c>
+      <c r="H2">
+        <v>27.45</v>
+      </c>
+      <c r="I2">
+        <v>16.05</v>
+      </c>
+      <c r="J2">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>186.02</v>
+      </c>
+      <c r="D3">
+        <v>150.34</v>
+      </c>
+      <c r="E3">
+        <v>-283.7</v>
+      </c>
+      <c r="F3">
+        <v>169.44</v>
+      </c>
+      <c r="G3">
+        <v>-0.06</v>
+      </c>
+      <c r="H3">
+        <v>36.02</v>
+      </c>
+      <c r="I3">
+        <v>43.5</v>
+      </c>
+      <c r="J3">
+        <v>79.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>250.85</v>
+      </c>
+      <c r="D4">
+        <v>159.27</v>
+      </c>
+      <c r="E4">
+        <v>-110.77</v>
+      </c>
+      <c r="F4">
+        <v>-72.17</v>
+      </c>
+      <c r="G4">
+        <v>0.16</v>
+      </c>
+      <c r="H4">
+        <v>-23.51</v>
+      </c>
+      <c r="I4">
+        <v>79.52</v>
+      </c>
+      <c r="J4">
+        <v>56.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>291.68</v>
+      </c>
+      <c r="D5">
+        <v>171.79</v>
+      </c>
+      <c r="E5">
+        <v>-343.44</v>
+      </c>
+      <c r="F5">
+        <v>102.46</v>
+      </c>
+      <c r="G5">
+        <v>1.65</v>
+      </c>
+      <c r="H5">
+        <v>-67.54000000000001</v>
+      </c>
+      <c r="I5">
+        <v>56.01</v>
+      </c>
+      <c r="J5">
+        <v>-11.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>75.33</v>
-      </c>
-      <c r="C2">
+      <c r="C6">
+        <v>324.96</v>
+      </c>
+      <c r="D6">
+        <v>189.07</v>
+      </c>
+      <c r="E6">
+        <v>-435.09</v>
+      </c>
+      <c r="F6">
+        <v>358.21</v>
+      </c>
+      <c r="G6">
+        <v>0.43</v>
+      </c>
+      <c r="H6">
         <v>112.62</v>
       </c>
-      <c r="D2">
-        <v>-74.48999999999999</v>
-      </c>
-      <c r="E2">
-        <v>-12.8</v>
-      </c>
-      <c r="F2">
-        <v>2.12</v>
-      </c>
-      <c r="G2">
-        <v>27.45</v>
-      </c>
-      <c r="H2">
-        <v>16.05</v>
-      </c>
-      <c r="I2">
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>186.02</v>
-      </c>
-      <c r="C3">
-        <v>150.34</v>
-      </c>
-      <c r="D3">
-        <v>-283.7</v>
-      </c>
-      <c r="E3">
-        <v>169.44</v>
-      </c>
-      <c r="F3">
-        <v>-0.06</v>
-      </c>
-      <c r="G3">
-        <v>36.02</v>
-      </c>
-      <c r="H3">
-        <v>43.5</v>
-      </c>
-      <c r="I3">
-        <v>79.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>250.85</v>
-      </c>
-      <c r="C4">
-        <v>159.27</v>
-      </c>
-      <c r="D4">
-        <v>-110.77</v>
-      </c>
-      <c r="E4">
-        <v>-72.17</v>
-      </c>
-      <c r="F4">
-        <v>0.16</v>
-      </c>
-      <c r="G4">
-        <v>-23.51</v>
-      </c>
-      <c r="H4">
-        <v>79.52</v>
-      </c>
-      <c r="I4">
-        <v>56.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>291.68</v>
-      </c>
-      <c r="C5">
-        <v>171.79</v>
-      </c>
-      <c r="D5">
-        <v>-343.44</v>
-      </c>
-      <c r="E5">
-        <v>102.46</v>
-      </c>
-      <c r="F5">
-        <v>1.65</v>
-      </c>
-      <c r="G5">
-        <v>-67.54000000000001</v>
-      </c>
-      <c r="H5">
-        <v>56.01</v>
-      </c>
-      <c r="I5">
+      <c r="I6">
         <v>-11.53</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>324.96</v>
-      </c>
-      <c r="C6">
-        <v>189.07</v>
-      </c>
-      <c r="D6">
-        <v>-435.09</v>
-      </c>
-      <c r="E6">
-        <v>358.21</v>
-      </c>
-      <c r="F6">
-        <v>0.43</v>
-      </c>
-      <c r="G6">
-        <v>112.62</v>
-      </c>
-      <c r="H6">
-        <v>-11.53</v>
-      </c>
-      <c r="I6">
+      <c r="J6">
         <v>101.09</v>
       </c>
     </row>
@@ -1127,86 +1148,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>49</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>698.21</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
       </c>
       <c r="C2">
         <v>698.21</v>
@@ -1215,46 +1239,46 @@
         <v>698.21</v>
       </c>
       <c r="E2">
+        <v>698.21</v>
+      </c>
+      <c r="F2">
         <v>15.98</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>714.1900000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>441.23</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>7.99</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>20.23</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>158.15</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>627.6</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>86.59</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>75.33</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1.72</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.18</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1.9</v>
-      </c>
-      <c r="R2">
-        <v>73.43000000000001</v>
       </c>
       <c r="S2">
         <v>73.43000000000001</v>
@@ -1263,18 +1287,21 @@
         <v>73.43000000000001</v>
       </c>
       <c r="U2">
+        <v>73.43000000000001</v>
+      </c>
+      <c r="V2">
         <v>7.21</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>5.49</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>760.96</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
       <c r="C3">
         <v>760.96</v>
@@ -1283,46 +1310,46 @@
         <v>760.96</v>
       </c>
       <c r="E3">
+        <v>760.96</v>
+      </c>
+      <c r="F3">
         <v>23.42</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>784.38</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>450.12</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6.92</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>20.63</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>120.69</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>598.36</v>
-      </c>
-      <c r="M3">
-        <v>186.02</v>
       </c>
       <c r="N3">
         <v>186.02</v>
       </c>
       <c r="O3">
+        <v>186.02</v>
+      </c>
+      <c r="P3">
         <v>35.27</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-11.18</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>24.09</v>
-      </c>
-      <c r="R3">
-        <v>161.93</v>
       </c>
       <c r="S3">
         <v>161.93</v>
@@ -1331,18 +1358,21 @@
         <v>161.93</v>
       </c>
       <c r="U3">
+        <v>161.93</v>
+      </c>
+      <c r="V3">
         <v>11.71</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>11.41</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>1033.54</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1033.54</v>
@@ -1351,46 +1381,46 @@
         <v>1033.54</v>
       </c>
       <c r="E4">
+        <v>1033.54</v>
+      </c>
+      <c r="F4">
         <v>37.71</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1071.25</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>612.1</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>8.300000000000001</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>24.23</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>175.77</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>820.4</v>
-      </c>
-      <c r="M4">
-        <v>250.85</v>
       </c>
       <c r="N4">
         <v>250.85</v>
       </c>
       <c r="O4">
+        <v>250.85</v>
+      </c>
+      <c r="P4">
         <v>60.04</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>4.33</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>64.37</v>
-      </c>
-      <c r="R4">
-        <v>186.48</v>
       </c>
       <c r="S4">
         <v>186.48</v>
@@ -1399,18 +1429,21 @@
         <v>186.48</v>
       </c>
       <c r="U4">
+        <v>186.48</v>
+      </c>
+      <c r="V4">
         <v>13.21</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>12.91</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>1332.55</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1332.55</v>
@@ -1419,46 +1452,46 @@
         <v>1332.55</v>
       </c>
       <c r="E5">
+        <v>1332.55</v>
+      </c>
+      <c r="F5">
         <v>22.34</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1354.89</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>786.9</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>21.5</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>29.96</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>224.85</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1063.21</v>
-      </c>
-      <c r="M5">
-        <v>291.68</v>
       </c>
       <c r="N5">
         <v>291.68</v>
       </c>
       <c r="O5">
+        <v>291.68</v>
+      </c>
+      <c r="P5">
         <v>78.89</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-3.59</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>75.3</v>
-      </c>
-      <c r="R5">
-        <v>216.38</v>
       </c>
       <c r="S5">
         <v>216.38</v>
@@ -1467,18 +1500,21 @@
         <v>216.38</v>
       </c>
       <c r="U5">
+        <v>216.38</v>
+      </c>
+      <c r="V5">
         <v>15.11</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>1472.88</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
       <c r="C6">
         <v>1472.88</v>
@@ -1487,46 +1523,46 @@
         <v>1472.88</v>
       </c>
       <c r="E6">
+        <v>1472.88</v>
+      </c>
+      <c r="F6">
         <v>111.26</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1584.14</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>947.72</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>42.27</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>34.3</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>236.32</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1260.61</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>323.53</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>324.96</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>83.2</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-3.97</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>79.23</v>
-      </c>
-      <c r="R6">
-        <v>245.73</v>
       </c>
       <c r="S6">
         <v>245.73</v>
@@ -1535,9 +1571,12 @@
         <v>245.73</v>
       </c>
       <c r="U6">
+        <v>245.73</v>
+      </c>
+      <c r="V6">
         <v>16.55</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>16.55</v>
       </c>
     </row>
@@ -1556,84 +1595,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D2">
         <v>171.5</v>
@@ -1698,13 +1737,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>186.35</v>
@@ -1769,13 +1808,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>177.02</v>
@@ -1840,13 +1879,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D5">
         <v>182.84</v>
@@ -1911,13 +1950,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>192.84</v>
@@ -1982,13 +2021,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>208.26</v>
@@ -2053,13 +2092,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <v>230.41</v>
@@ -2124,13 +2163,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D9">
         <v>250.43</v>
@@ -2195,13 +2234,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>72</v>
       </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>265.88</v>
@@ -2266,13 +2305,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>286.82</v>
@@ -2337,13 +2376,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>73</v>
       </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>307.81</v>
@@ -2408,13 +2447,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>337.65</v>
@@ -2479,13 +2518,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <v>344.76</v>
@@ -2550,13 +2589,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D15">
         <v>342.33</v>
@@ -2621,13 +2660,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D16">
         <v>357.05</v>
@@ -2692,13 +2731,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D17">
         <v>370.01</v>
@@ -2763,13 +2802,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>370.58</v>
@@ -2834,13 +2873,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D19">
         <v>375.24</v>
@@ -2905,13 +2944,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D20">
         <v>372.4</v>
@@ -2976,13 +3015,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D21">
         <v>374.65</v>
@@ -3052,110 +3091,113 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
         <v>158.86</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>26.12</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>21.52</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>17.14</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>16.71</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>16.44</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>13.54</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>10.78</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10.51</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>32.02</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>14.45</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.31</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -3169,49 +3211,52 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>53.65</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>15.06</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>13.6</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>13.11</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>11.42</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>28.06</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>25.35</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>24.44</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>21.27</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>29.62</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>17.85</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.27</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -3220,177 +3265,189 @@
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>7668.78</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>35.91</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
         <v>72.43000000000001</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>19.86</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>18.16</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>17.58</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>13.07</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>27.41</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>25.07</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>24.27</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>18.04</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>27.84</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>17.22</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.28</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>36.62</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>32.41</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>63.38</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>15091.62</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>53.26</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
         <v>92.98999999999999</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>23.95</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>21.85</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>20.35</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>15.1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>25.75</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>23.5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>21.88</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>16.23</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>26.19</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>13.72</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.58</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>26.41</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>23.19</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>73.59</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>10805.05</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>31.49</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
         <v>98.62</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>26.79</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>24.49</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>21.76</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>16.45</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>27.16</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>24.83</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>22.06</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>16.68</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>16.67</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>11.12</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.3</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>35.01</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>30.72</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>64.98999999999999</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>10231.95</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>25.57</v>
       </c>
     </row>
